--- a/figures/distributions.xlsx
+++ b/figures/distributions.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="genders" sheetId="2" r:id="rId1"/>
     <sheet name="ages" sheetId="1" r:id="rId2"/>
     <sheet name="diagnosis counts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -152,11 +152,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="72337280"/>
-        <c:axId val="72338816"/>
+        <c:axId val="124377728"/>
+        <c:axId val="124518784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72337280"/>
+        <c:axId val="124377728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -165,7 +165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72338816"/>
+        <c:crossAx val="124518784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -173,7 +173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72338816"/>
+        <c:axId val="124518784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -184,7 +184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72337280"/>
+        <c:crossAx val="124377728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -558,7 +558,7 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B3" sqref="B3:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,6 +744,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -751,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B31" sqref="B3:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,5 +1009,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/figures/distributions.xlsx
+++ b/figures/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="genders" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>male</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>patient count</t>
+  </si>
+  <si>
+    <t>&gt;30</t>
   </si>
 </sst>
 </file>
@@ -152,11 +155,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="124377728"/>
-        <c:axId val="124518784"/>
+        <c:axId val="135428352"/>
+        <c:axId val="135446528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124377728"/>
+        <c:axId val="135428352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -165,7 +168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124518784"/>
+        <c:crossAx val="135446528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -173,7 +176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124518784"/>
+        <c:axId val="135446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -184,7 +187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124377728"/>
+        <c:crossAx val="135428352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -193,6 +196,323 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="et-EE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'diagnosis counts'!$I$4:$I$34</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>&gt;30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'diagnosis counts'!$J$4:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>7765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1593</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="14"/>
+        <c:axId val="136523136"/>
+        <c:axId val="136541696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="136523136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="et-EE" b="0">
+                    <a:latin typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="et-EE" b="0" baseline="0">
+                    <a:latin typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="et-EE" b="0">
+                    <a:latin typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>different diagnoses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136541696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136541696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="et-EE" b="0">
+                    <a:latin typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of patients</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.5307869022196338E-3"/>
+              <c:y val="9.1246863799283165E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136523136"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="4000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800">
+          <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="et-EE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -219,6 +539,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>147886</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -525,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,23 +910,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -581,8 +942,14 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -592,153 +959,910 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
         <v>1557</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
       <c r="B6">
         <v>1929</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
         <v>2797</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
       <c r="B8">
         <v>3581</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
       <c r="B9">
         <v>5753</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35</v>
       </c>
       <c r="B10">
         <v>5456</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
       <c r="B11">
         <v>4358</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
       <c r="B12">
         <v>3210</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50</v>
       </c>
       <c r="B13">
         <v>2887</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>55</v>
       </c>
       <c r="B14">
         <v>2631</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>60</v>
       </c>
       <c r="B15">
         <v>2314</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65</v>
       </c>
       <c r="B16">
         <v>2074</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>70</v>
       </c>
       <c r="B17">
         <v>2182</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>75</v>
       </c>
       <c r="B18">
         <v>1957</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
       <c r="B19">
         <v>1737</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>85</v>
       </c>
       <c r="B20">
         <v>1429</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>90</v>
       </c>
       <c r="B21">
         <v>791</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>95</v>
       </c>
       <c r="B22">
         <v>621</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>24</v>
+      </c>
+      <c r="J27">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>27</v>
+      </c>
+      <c r="J30">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>29</v>
+      </c>
+      <c r="J32">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>34</v>
+      </c>
+      <c r="J37">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>35</v>
+      </c>
+      <c r="J38">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>36</v>
+      </c>
+      <c r="J39">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>37</v>
+      </c>
+      <c r="J40">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>39</v>
+      </c>
+      <c r="J42">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>41</v>
+      </c>
+      <c r="J44">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>42</v>
+      </c>
+      <c r="J45">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>44</v>
+      </c>
+      <c r="J47">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>45</v>
+      </c>
+      <c r="J48">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>46</v>
+      </c>
+      <c r="J49">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>47</v>
+      </c>
+      <c r="J50">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>48</v>
+      </c>
+      <c r="J51">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>49</v>
+      </c>
+      <c r="J52">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>51</v>
+      </c>
+      <c r="J54">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>52</v>
+      </c>
+      <c r="J55">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>53</v>
+      </c>
+      <c r="J56">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>54</v>
+      </c>
+      <c r="J57">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>55</v>
+      </c>
+      <c r="J58">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>56</v>
+      </c>
+      <c r="J59">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>57</v>
+      </c>
+      <c r="J60">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>58</v>
+      </c>
+      <c r="J61">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>59</v>
+      </c>
+      <c r="J62">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>60</v>
+      </c>
+      <c r="J63">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>61</v>
+      </c>
+      <c r="J64">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>62</v>
+      </c>
+      <c r="J65">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>63</v>
+      </c>
+      <c r="J66">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>64</v>
+      </c>
+      <c r="J67">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>65</v>
+      </c>
+      <c r="J68">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>66</v>
+      </c>
+      <c r="J69">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>67</v>
+      </c>
+      <c r="J70">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>68</v>
+      </c>
+      <c r="J71">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>69</v>
+      </c>
+      <c r="J72">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>70</v>
+      </c>
+      <c r="J73">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>71</v>
+      </c>
+      <c r="J74">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>72</v>
+      </c>
+      <c r="J75">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>73</v>
+      </c>
+      <c r="J76">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>74</v>
+      </c>
+      <c r="J77">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>75</v>
+      </c>
+      <c r="J78">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>76</v>
+      </c>
+      <c r="J79">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>77</v>
+      </c>
+      <c r="J80">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>78</v>
+      </c>
+      <c r="J81">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>79</v>
+      </c>
+      <c r="J82">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>80</v>
+      </c>
+      <c r="J83">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>81</v>
+      </c>
+      <c r="J84">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>82</v>
+      </c>
+      <c r="J85">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>83</v>
+      </c>
+      <c r="J86">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>84</v>
+      </c>
+      <c r="J87">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>85</v>
+      </c>
+      <c r="J88">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>86</v>
+      </c>
+      <c r="J89">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>87</v>
+      </c>
+      <c r="J90">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>88</v>
+      </c>
+      <c r="J91">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>89</v>
+      </c>
+      <c r="J92">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>90</v>
+      </c>
+      <c r="J93">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>91</v>
+      </c>
+      <c r="J94">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>92</v>
+      </c>
+      <c r="J95">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>93</v>
+      </c>
+      <c r="J96">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>94</v>
+      </c>
+      <c r="J97">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>95</v>
+      </c>
+      <c r="J98">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>96</v>
+      </c>
+      <c r="J99">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>97</v>
+      </c>
+      <c r="J100">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>98</v>
+      </c>
+      <c r="J101">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>99</v>
+      </c>
+      <c r="J102">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I103">
         <v>100</v>
       </c>
     </row>
@@ -750,265 +1874,785 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B32"/>
+  <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B31" sqref="B3:B31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF66" sqref="AF66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>7765</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>8519</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7765</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>7765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>6631</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4693</v>
+      </c>
+      <c r="J5">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>5798</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3826</v>
+      </c>
+      <c r="J6">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7">
         <v>4882</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>3466</v>
+      </c>
+      <c r="J7">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8">
         <v>3897</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3165</v>
+      </c>
+      <c r="J8">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9">
         <v>3023</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>3002</v>
+      </c>
+      <c r="J9">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
       <c r="B10">
         <v>2324</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>2796</v>
+      </c>
+      <c r="J10">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
       <c r="B11">
         <v>1676</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>2527</v>
+      </c>
+      <c r="J11">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
       <c r="B12">
         <v>1163</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>2355</v>
+      </c>
+      <c r="J12">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
       <c r="B13">
         <v>869</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>2063</v>
+      </c>
+      <c r="J13">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22</v>
       </c>
       <c r="B14">
         <v>588</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>1834</v>
+      </c>
+      <c r="J14">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
       <c r="B15">
         <v>405</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>1593</v>
+      </c>
+      <c r="J15">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
       <c r="B16">
         <v>268</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>1430</v>
+      </c>
+      <c r="J16">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28</v>
       </c>
       <c r="B17">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>1191</v>
+      </c>
+      <c r="J17">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
       <c r="B18">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>1133</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>32</v>
       </c>
       <c r="B19">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>914</v>
+      </c>
+      <c r="J19">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>34</v>
       </c>
       <c r="B20">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>762</v>
+      </c>
+      <c r="J20">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>36</v>
       </c>
       <c r="B21">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>614</v>
+      </c>
+      <c r="J21">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>38</v>
       </c>
       <c r="B22">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>549</v>
+      </c>
+      <c r="J22">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>40</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>471</v>
+      </c>
+      <c r="J23">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>42</v>
       </c>
       <c r="B24">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>398</v>
+      </c>
+      <c r="J24">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>44</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>322</v>
+      </c>
+      <c r="J25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>46</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>266</v>
+      </c>
+      <c r="J26">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>48</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>221</v>
+      </c>
+      <c r="J27">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>184</v>
+      </c>
+      <c r="J28">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>52</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>146</v>
+      </c>
+      <c r="J29">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>54</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>122</v>
+      </c>
+      <c r="J30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>28</v>
+      </c>
+      <c r="G31">
+        <v>117</v>
+      </c>
+      <c r="J31">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>58</v>
+      </c>
+      <c r="F32">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>83</v>
+      </c>
+      <c r="J32">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>60</v>
+      </c>
+      <c r="J33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>31</v>
+      </c>
+      <c r="G34">
+        <v>53</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <f>SUM(G34:G60)</f>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>39</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>42</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>44</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>46</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>47</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>49</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>51</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>52</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>53</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>54</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>56</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>57</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F61">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/figures/distributions.xlsx
+++ b/figures/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="genders" sheetId="2" r:id="rId1"/>
@@ -155,11 +155,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="135428352"/>
-        <c:axId val="135446528"/>
+        <c:axId val="98080640"/>
+        <c:axId val="98082176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135428352"/>
+        <c:axId val="98080640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -168,7 +168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135446528"/>
+        <c:crossAx val="98082176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -176,7 +176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135446528"/>
+        <c:axId val="98082176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -187,7 +187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135428352"/>
+        <c:crossAx val="98080640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -371,11 +371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="14"/>
-        <c:axId val="136523136"/>
-        <c:axId val="136541696"/>
+        <c:axId val="98348416"/>
+        <c:axId val="98375168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136523136"/>
+        <c:axId val="98348416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,13 +417,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136541696"/>
+        <c:crossAx val="98375168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -432,7 +431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136541696"/>
+        <c:axId val="98375168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000"/>
@@ -481,7 +480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136523136"/>
+        <c:crossAx val="98348416"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4000"/>
@@ -878,28 +877,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>21313</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>B2/SUM($B$2:$B$3)</f>
+        <v>0.44034214169128738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>27088</v>
+      </c>
+      <c r="C3">
+        <f>B3/SUM($B$2:$B$3)</f>
+        <v>0.55965785830871262</v>
       </c>
     </row>
   </sheetData>
@@ -912,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AF66" sqref="AF66"/>
     </sheetView>
   </sheetViews>
